--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed El-Sawy\Desktop\test_Oliver\teest - 03 - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_Main_Projects\HRC_Project\00_HRC_Project_Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C663B0-0B3A-45F6-8D7F-96F8A59831FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F41636E-F548-4094-8C5D-E49976E44453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1470" windowWidth="16020" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1035" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
   <si>
     <t>SiteKey</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>جازان</t>
-  </si>
-  <si>
-    <t>عرعر</t>
   </si>
 </sst>
 </file>
@@ -432,16 +429,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52:P56"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="10" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2995,256 +2992,6 @@
         <v>42.568769799999998</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>11</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="4">
-        <v>45901</v>
-      </c>
-      <c r="G52" s="3">
-        <v>15</v>
-      </c>
-      <c r="H52" s="4">
-        <v>45916</v>
-      </c>
-      <c r="I52" s="4">
-        <v>45912</v>
-      </c>
-      <c r="J52" s="3">
-        <v>11</v>
-      </c>
-      <c r="K52" s="3">
-        <v>4</v>
-      </c>
-      <c r="L52" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="N52" s="6">
-        <v>-0.68330000000000002</v>
-      </c>
-      <c r="O52" s="3">
-        <v>30.9940049</v>
-      </c>
-      <c r="P52" s="3">
-        <v>41.045622600000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>11</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="3">
-        <v>2</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="4">
-        <v>45916</v>
-      </c>
-      <c r="G53" s="3">
-        <v>35</v>
-      </c>
-      <c r="H53" s="4">
-        <v>45951</v>
-      </c>
-      <c r="I53" s="4">
-        <v>45912</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>35</v>
-      </c>
-      <c r="L53" s="5">
-        <v>0</v>
-      </c>
-      <c r="M53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="O53" s="3">
-        <v>30.9940049</v>
-      </c>
-      <c r="P53" s="3">
-        <v>41.045622600000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>11</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="3">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="4">
-        <v>45951</v>
-      </c>
-      <c r="G54" s="3">
-        <v>25</v>
-      </c>
-      <c r="H54" s="4">
-        <v>45976</v>
-      </c>
-      <c r="I54" s="4">
-        <v>45912</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>25</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
-      <c r="M54" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="O54" s="3">
-        <v>30.9940049</v>
-      </c>
-      <c r="P54" s="3">
-        <v>41.045622600000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>11</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="3">
-        <v>4</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="4">
-        <v>45976</v>
-      </c>
-      <c r="G55" s="3">
-        <v>20</v>
-      </c>
-      <c r="H55" s="4">
-        <v>45996</v>
-      </c>
-      <c r="I55" s="4">
-        <v>45912</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
-        <v>20</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
-      <c r="M55" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="O55" s="3">
-        <v>30.9940049</v>
-      </c>
-      <c r="P55" s="3">
-        <v>41.045622600000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>11</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="3">
-        <v>5</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="4">
-        <v>45996</v>
-      </c>
-      <c r="G56" s="3">
-        <v>25</v>
-      </c>
-      <c r="H56" s="4">
-        <v>46021</v>
-      </c>
-      <c r="I56" s="4">
-        <v>45912</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3">
-        <v>25</v>
-      </c>
-      <c r="L56" s="5">
-        <v>0</v>
-      </c>
-      <c r="M56" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="O56" s="3">
-        <v>30.9940049</v>
-      </c>
-      <c r="P56" s="3">
-        <v>41.045622600000002</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_Main_Projects\HRC_Project\00_HRC_Project_Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F41636E-F548-4094-8C5D-E49976E44453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09677ED0-3D81-4A06-9A58-74433FB343BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1035" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="35">
   <si>
     <t>SiteKey</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>جازان</t>
+  </si>
+  <si>
+    <t>عرعر</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2992,6 +2995,256 @@
         <v>42.568769799999998</v>
       </c>
     </row>
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>11</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45901</v>
+      </c>
+      <c r="G52" s="3">
+        <v>15</v>
+      </c>
+      <c r="H52" s="4">
+        <v>45916</v>
+      </c>
+      <c r="I52" s="4">
+        <v>45912</v>
+      </c>
+      <c r="J52" s="3">
+        <v>11</v>
+      </c>
+      <c r="K52" s="3">
+        <v>4</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N52" s="6">
+        <v>-0.68330000000000002</v>
+      </c>
+      <c r="O52" s="3">
+        <v>30.9940049</v>
+      </c>
+      <c r="P52" s="3">
+        <v>41.045622600000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>11</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="4">
+        <v>45916</v>
+      </c>
+      <c r="G53" s="3">
+        <v>35</v>
+      </c>
+      <c r="H53" s="4">
+        <v>45951</v>
+      </c>
+      <c r="I53" s="4">
+        <v>45912</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>35</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O53" s="3">
+        <v>30.9940049</v>
+      </c>
+      <c r="P53" s="3">
+        <v>41.045622600000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>11</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="4">
+        <v>45951</v>
+      </c>
+      <c r="G54" s="3">
+        <v>25</v>
+      </c>
+      <c r="H54" s="4">
+        <v>45976</v>
+      </c>
+      <c r="I54" s="4">
+        <v>45912</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>25</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="O54" s="3">
+        <v>30.9940049</v>
+      </c>
+      <c r="P54" s="3">
+        <v>41.045622600000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>11</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="3">
+        <v>4</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="4">
+        <v>45976</v>
+      </c>
+      <c r="G55" s="3">
+        <v>20</v>
+      </c>
+      <c r="H55" s="4">
+        <v>45996</v>
+      </c>
+      <c r="I55" s="4">
+        <v>45912</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>20</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O55" s="3">
+        <v>30.9940049</v>
+      </c>
+      <c r="P55" s="3">
+        <v>41.045622600000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>11</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="4">
+        <v>45996</v>
+      </c>
+      <c r="G56" s="3">
+        <v>25</v>
+      </c>
+      <c r="H56" s="4">
+        <v>46021</v>
+      </c>
+      <c r="I56" s="4">
+        <v>45912</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>25</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="O56" s="3">
+        <v>30.9940049</v>
+      </c>
+      <c r="P56" s="3">
+        <v>41.045622600000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
